--- a/加算様式一式/【送付】LIFEで収集する情報一覧_20210216.xlsx
+++ b/加算様式一式/【送付】LIFEで収集する情報一覧_20210216.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978D677-9B39-4ABE-8F8B-8A06A0527C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930727E-E3A0-4FCF-BB83-AE480BEA1C5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="1095" windowWidth="24930" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="870" windowWidth="18870" windowHeight="11955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体像" sheetId="3" r:id="rId1"/>
@@ -15,14 +15,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1773,9 +1765,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I21" t="s">
         <v>29</v>
       </c>
@@ -1794,23 +1786,23 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="40.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.58203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="40.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +1831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1895,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1920,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1945,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1972,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>39</v>
@@ -1997,7 +1989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>39</v>
@@ -2022,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>39</v>
@@ -2047,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>39</v>
@@ -2072,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>39</v>
@@ -2097,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>39</v>
@@ -2122,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>52</v>
@@ -2147,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>12</v>
@@ -2172,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12"/>
       <c r="B15" s="14" t="s">
         <v>53</v>
@@ -2197,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12"/>
       <c r="B16" s="6" t="s">
         <v>41</v>
@@ -2224,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2249,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>19</v>
@@ -2274,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2299,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17"/>
       <c r="B20" s="6" t="s">
         <v>40</v>
@@ -2324,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.4">
       <c r="A22" s="32"/>
       <c r="B22" s="6" t="s">
         <v>4</v>
